--- a/num_atomos/crn256.xlsx
+++ b/num_atomos/crn256.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CRN</t>
   </si>
@@ -116,21 +116,6 @@
   </si>
   <si>
     <t>crn_00024</t>
-  </si>
-  <si>
-    <t>crn_00025</t>
-  </si>
-  <si>
-    <t>crn_00026</t>
-  </si>
-  <si>
-    <t>crn_00027</t>
-  </si>
-  <si>
-    <t>crn_00028</t>
-  </si>
-  <si>
-    <t>crn_00029</t>
   </si>
 </sst>
 </file>
@@ -495,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,28 +520,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>1766.686072</v>
+        <v>1769.54131</v>
       </c>
       <c r="C2" s="2">
-        <v>260.424222</v>
+        <v>233.444182</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.403815</v>
+        <v>0.216583</v>
       </c>
       <c r="E2" s="2">
-        <v>3.769226</v>
+        <v>3.391931</v>
       </c>
       <c r="F2" s="2">
-        <v>46.875</v>
+        <v>50.78125</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -564,28 +549,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>1768.949744</v>
+        <v>1727.524844</v>
       </c>
       <c r="C3" s="2">
-        <v>257.848159</v>
+        <v>242.228542</v>
       </c>
       <c r="D3" s="2">
-        <v>0.348828</v>
+        <v>0.636426</v>
       </c>
       <c r="E3" s="2">
-        <v>5.799915</v>
+        <v>6.095082</v>
       </c>
       <c r="F3" s="2">
-        <v>46.875</v>
+        <v>52.34375</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -593,28 +578,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>1745.059353</v>
+        <v>1737.608153</v>
       </c>
       <c r="C4" s="2">
-        <v>251.014832</v>
+        <v>248.515757</v>
       </c>
       <c r="D4" s="2">
-        <v>0.046169</v>
+        <v>0.383505</v>
       </c>
       <c r="E4" s="2">
-        <v>2.765525</v>
+        <v>3.09084</v>
       </c>
       <c r="F4" s="2">
-        <v>46.09375</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -622,28 +607,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>1805.627638</v>
+        <v>1725.150368</v>
       </c>
       <c r="C5" s="2">
-        <v>234.395991</v>
+        <v>243.014147</v>
       </c>
       <c r="D5" s="2">
-        <v>0.115441</v>
+        <v>0.609005</v>
       </c>
       <c r="E5" s="2">
-        <v>4.368514</v>
+        <v>5.060298</v>
       </c>
       <c r="F5" s="2">
-        <v>50.78125</v>
+        <v>46.875</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -651,28 +636,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>1768.825128</v>
+        <v>1769.89245</v>
       </c>
       <c r="C6" s="2">
-        <v>252.2621</v>
+        <v>233.115228</v>
       </c>
       <c r="D6" s="2">
-        <v>0.824864</v>
+        <v>0.192106</v>
       </c>
       <c r="E6" s="2">
-        <v>6.053027</v>
+        <v>4.441251</v>
       </c>
       <c r="F6" s="2">
-        <v>47.65625</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -680,28 +665,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>1777.861742</v>
+        <v>1741.383203</v>
       </c>
       <c r="C7" s="2">
-        <v>272.378611</v>
+        <v>246.587725</v>
       </c>
       <c r="D7" s="2">
-        <v>0.646948</v>
+        <v>0.079778</v>
       </c>
       <c r="E7" s="2">
-        <v>6.44637</v>
+        <v>3.868076</v>
       </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>52.34375</v>
       </c>
       <c r="G7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I7" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -709,28 +694,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>1799.453152</v>
+        <v>1729.469216</v>
       </c>
       <c r="C8" s="2">
-        <v>261.814032</v>
+        <v>261.227781</v>
       </c>
       <c r="D8" s="2">
-        <v>0.215345</v>
+        <v>0.334588</v>
       </c>
       <c r="E8" s="2">
-        <v>4.337186</v>
+        <v>4.782109</v>
       </c>
       <c r="F8" s="2">
-        <v>46.09375</v>
+        <v>49.21875</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I8" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -738,28 +723,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>1820.040026</v>
+        <v>1757.89233</v>
       </c>
       <c r="C9" s="2">
-        <v>231.488698</v>
+        <v>245.706346</v>
       </c>
       <c r="D9" s="2">
-        <v>0.263732</v>
+        <v>-0.024852</v>
       </c>
       <c r="E9" s="2">
-        <v>3.417263</v>
+        <v>4.386302</v>
       </c>
       <c r="F9" s="2">
-        <v>49.21875</v>
+        <v>51.5625</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I9" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -767,28 +752,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>1759.213177</v>
+        <v>1744.902815</v>
       </c>
       <c r="C10" s="2">
-        <v>267.500747</v>
+        <v>227.481954</v>
       </c>
       <c r="D10" s="2">
-        <v>0.632195</v>
+        <v>0.296993</v>
       </c>
       <c r="E10" s="2">
-        <v>5.686923</v>
+        <v>3.917674</v>
       </c>
       <c r="F10" s="2">
-        <v>46.09375</v>
+        <v>51.5625</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I10" s="2">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -796,28 +781,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>1766.862763</v>
+        <v>1752.741149</v>
       </c>
       <c r="C11" s="2">
-        <v>244.366337</v>
+        <v>236.532555</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.167143</v>
+        <v>0.324316</v>
       </c>
       <c r="E11" s="2">
-        <v>2.895863</v>
+        <v>4.643901</v>
       </c>
       <c r="F11" s="2">
-        <v>46.875</v>
+        <v>53.90625</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -825,28 +810,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>1753.374463</v>
+        <v>1722.217662</v>
       </c>
       <c r="C12" s="2">
-        <v>263.188294</v>
+        <v>253.147209</v>
       </c>
       <c r="D12" s="2">
-        <v>0.5188739999999999</v>
+        <v>-0.715754</v>
       </c>
       <c r="E12" s="2">
-        <v>6.379838</v>
+        <v>1.596722</v>
       </c>
       <c r="F12" s="2">
-        <v>45.3125</v>
+        <v>54.6875</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -854,28 +839,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>1801.756271</v>
+        <v>1794.144868</v>
       </c>
       <c r="C13" s="2">
-        <v>253.10445</v>
+        <v>232.026691</v>
       </c>
       <c r="D13" s="2">
-        <v>0.639636</v>
+        <v>-0.206985</v>
       </c>
       <c r="E13" s="2">
-        <v>4.212649</v>
+        <v>2.523969</v>
       </c>
       <c r="F13" s="2">
-        <v>46.09375</v>
+        <v>51.5625</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I13" s="2">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -883,28 +868,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>1780.204571</v>
+        <v>1745.685595</v>
       </c>
       <c r="C14" s="2">
-        <v>266.380773</v>
+        <v>267.662661</v>
       </c>
       <c r="D14" s="2">
-        <v>0.123627</v>
+        <v>0.315709</v>
       </c>
       <c r="E14" s="2">
-        <v>2.959769</v>
+        <v>4.220947</v>
       </c>
       <c r="F14" s="2">
-        <v>45.3125</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I14" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -912,28 +897,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>1795.47805</v>
+        <v>1772.263861</v>
       </c>
       <c r="C15" s="2">
-        <v>257.566922</v>
+        <v>254.856945</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.705472</v>
+        <v>0.169575</v>
       </c>
       <c r="E15" s="2">
-        <v>2.66746</v>
+        <v>3.478333</v>
       </c>
       <c r="F15" s="2">
-        <v>51.5625</v>
+        <v>47.65625</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I15" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -941,28 +926,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1772.792447</v>
+        <v>1727.870403</v>
       </c>
       <c r="C16" s="2">
-        <v>223.15122</v>
+        <v>256.860981</v>
       </c>
       <c r="D16" s="2">
-        <v>0.233699</v>
+        <v>0.521527</v>
       </c>
       <c r="E16" s="2">
-        <v>3.818401</v>
+        <v>5.076763</v>
       </c>
       <c r="F16" s="2">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -970,28 +955,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1775.207791</v>
+        <v>1696.698131</v>
       </c>
       <c r="C17" s="2">
-        <v>250.600875</v>
+        <v>253.71489</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.119011</v>
+        <v>0.113652</v>
       </c>
       <c r="E17" s="2">
-        <v>3.143396</v>
+        <v>2.749505</v>
       </c>
       <c r="F17" s="2">
-        <v>46.09375</v>
+        <v>48.4375</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -999,28 +984,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1796.584441</v>
+        <v>1738.171894</v>
       </c>
       <c r="C18" s="2">
-        <v>255.862658</v>
+        <v>250.004131</v>
       </c>
       <c r="D18" s="2">
-        <v>0.228612</v>
+        <v>-1.650949</v>
       </c>
       <c r="E18" s="2">
-        <v>3.873324</v>
+        <v>0.672688</v>
       </c>
       <c r="F18" s="2">
-        <v>47.65625</v>
+        <v>48.4375</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I18" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1028,28 +1013,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1781.265445</v>
+        <v>1747.077781</v>
       </c>
       <c r="C19" s="2">
-        <v>200.52577</v>
+        <v>247.131886</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.575985</v>
+        <v>-0.546278</v>
       </c>
       <c r="E19" s="2">
-        <v>2.962744</v>
+        <v>2.746638</v>
       </c>
       <c r="F19" s="2">
-        <v>46.875</v>
+        <v>46.09375</v>
       </c>
       <c r="G19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I19" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1057,28 +1042,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1795.526357</v>
+        <v>1770.287538</v>
       </c>
       <c r="C20" s="2">
-        <v>251.454374</v>
+        <v>247.960486</v>
       </c>
       <c r="D20" s="2">
-        <v>0.122511</v>
+        <v>0.135606</v>
       </c>
       <c r="E20" s="2">
-        <v>3.467773</v>
+        <v>4.430412</v>
       </c>
       <c r="F20" s="2">
-        <v>46.875</v>
+        <v>53.125</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1086,28 +1071,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1813.159938</v>
+        <v>1797.91262</v>
       </c>
       <c r="C21" s="2">
-        <v>235.76325</v>
+        <v>219.138451</v>
       </c>
       <c r="D21" s="2">
-        <v>0.321187</v>
+        <v>-1.034322</v>
       </c>
       <c r="E21" s="2">
-        <v>4.864515</v>
+        <v>1.791313</v>
       </c>
       <c r="F21" s="2">
-        <v>51.5625</v>
+        <v>49.21875</v>
       </c>
       <c r="G21" s="2">
         <v>4</v>
       </c>
       <c r="H21" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I21" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1115,28 +1100,28 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1732.147057</v>
+        <v>1740.775355</v>
       </c>
       <c r="C22" s="2">
-        <v>258.090079</v>
+        <v>248.524451</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.966295</v>
+        <v>0.08322300000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>1.75138</v>
+        <v>4.635164</v>
       </c>
       <c r="F22" s="2">
         <v>49.21875</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2">
         <v>126</v>
       </c>
       <c r="I22" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1144,28 +1129,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>1802.955896</v>
+        <v>1739.08281</v>
       </c>
       <c r="C23" s="2">
-        <v>261.41771</v>
+        <v>258.080376</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.728943</v>
+        <v>0.005213</v>
       </c>
       <c r="E23" s="2">
-        <v>2.660616</v>
+        <v>4.272405</v>
       </c>
       <c r="F23" s="2">
-        <v>45.3125</v>
+        <v>47.65625</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1173,28 +1158,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>1762.830312</v>
+        <v>1743.294503</v>
       </c>
       <c r="C24" s="2">
-        <v>282.575637</v>
+        <v>242.917768</v>
       </c>
       <c r="D24" s="2">
-        <v>0.498282</v>
+        <v>0.572087</v>
       </c>
       <c r="E24" s="2">
-        <v>5.833082</v>
+        <v>6.088367</v>
       </c>
       <c r="F24" s="2">
-        <v>46.09375</v>
+        <v>51.5625</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I24" s="2">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1202,28 +1187,28 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>1754.199045</v>
+        <v>1754.704394</v>
       </c>
       <c r="C25" s="2">
-        <v>245.400449</v>
+        <v>241.550846</v>
       </c>
       <c r="D25" s="2">
-        <v>0.070757</v>
+        <v>0.460086</v>
       </c>
       <c r="E25" s="2">
-        <v>2.883979</v>
+        <v>4.040134</v>
       </c>
       <c r="F25" s="2">
-        <v>46.09375</v>
+        <v>51.5625</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I25" s="2">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1231,173 +1216,28 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>1796.100339</v>
+        <v>1763.622823</v>
       </c>
       <c r="C26" s="2">
-        <v>212.089195</v>
+        <v>237.730517</v>
       </c>
       <c r="D26" s="2">
-        <v>0.257514</v>
+        <v>-0.250895</v>
       </c>
       <c r="E26" s="2">
-        <v>3.810315</v>
+        <v>2.487608</v>
       </c>
       <c r="F26" s="2">
-        <v>45.3125</v>
+        <v>49.21875</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I26" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1783.406544</v>
-      </c>
-      <c r="C27" s="2">
-        <v>241.560587</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.338334</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4.804177</v>
-      </c>
-      <c r="F27" s="2">
-        <v>50</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>128</v>
-      </c>
-      <c r="I27" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1770.560183</v>
-      </c>
-      <c r="C28" s="2">
-        <v>240.671269</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.363121</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4.278101</v>
-      </c>
-      <c r="F28" s="2">
-        <v>51.5625</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>132</v>
-      </c>
-      <c r="I28" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1762.530884</v>
-      </c>
-      <c r="C29" s="2">
-        <v>265.881299</v>
-      </c>
-      <c r="D29" s="2">
-        <v>-0.637935</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.182485</v>
-      </c>
-      <c r="F29" s="2">
-        <v>48.4375</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>124</v>
-      </c>
-      <c r="I29" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1758.498473</v>
-      </c>
-      <c r="C30" s="2">
-        <v>264.97319</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-0.356135</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4.392635</v>
-      </c>
-      <c r="F30" s="2">
-        <v>46.09375</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>118</v>
-      </c>
-      <c r="I30" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1768.983532</v>
-      </c>
-      <c r="C31" s="2">
-        <v>255.131051</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-0.273562</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.243011</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45.3125</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>116</v>
-      </c>
-      <c r="I31" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/num_atomos/crn256.xlsx
+++ b/num_atomos/crn256.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>CRN</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>crn_00024</t>
+  </si>
+  <si>
+    <t>crn_00025</t>
+  </si>
+  <si>
+    <t>crn_00026</t>
+  </si>
+  <si>
+    <t>crn_00027</t>
+  </si>
+  <si>
+    <t>crn_00028</t>
+  </si>
+  <si>
+    <t>crn_00029</t>
   </si>
 </sst>
 </file>
@@ -480,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,28 +535,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>1769.54131</v>
+        <v>1757.411709</v>
       </c>
       <c r="C2" s="2">
-        <v>233.444182</v>
+        <v>217.393444</v>
       </c>
       <c r="D2" s="2">
-        <v>0.216583</v>
+        <v>-0.309861</v>
       </c>
       <c r="E2" s="2">
-        <v>3.391931</v>
+        <v>2.335199</v>
       </c>
       <c r="F2" s="2">
         <v>50.78125</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>130</v>
       </c>
       <c r="I2" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -549,28 +564,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>1727.524844</v>
+        <v>1749.646565</v>
       </c>
       <c r="C3" s="2">
-        <v>242.228542</v>
+        <v>242.437952</v>
       </c>
       <c r="D3" s="2">
-        <v>0.636426</v>
+        <v>0.465437</v>
       </c>
       <c r="E3" s="2">
-        <v>6.095082</v>
+        <v>5.705137</v>
       </c>
       <c r="F3" s="2">
         <v>52.34375</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>134</v>
       </c>
       <c r="I3" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -578,28 +593,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>1737.608153</v>
+        <v>1743.164143</v>
       </c>
       <c r="C4" s="2">
-        <v>248.515757</v>
+        <v>244.892525</v>
       </c>
       <c r="D4" s="2">
-        <v>0.383505</v>
+        <v>0.284523</v>
       </c>
       <c r="E4" s="2">
-        <v>3.09084</v>
+        <v>3.918286</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
+        <v>45.3125</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
       </c>
       <c r="H4" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -607,28 +622,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>1725.150368</v>
+        <v>1726.315748</v>
       </c>
       <c r="C5" s="2">
-        <v>243.014147</v>
+        <v>226.737593</v>
       </c>
       <c r="D5" s="2">
-        <v>0.609005</v>
+        <v>0.13794</v>
       </c>
       <c r="E5" s="2">
-        <v>5.060298</v>
+        <v>4.178563</v>
       </c>
       <c r="F5" s="2">
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -636,28 +651,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>1769.89245</v>
+        <v>1723.769856</v>
       </c>
       <c r="C6" s="2">
-        <v>233.115228</v>
+        <v>241.85558</v>
       </c>
       <c r="D6" s="2">
-        <v>0.192106</v>
+        <v>0.673977</v>
       </c>
       <c r="E6" s="2">
-        <v>4.441251</v>
+        <v>7.941054</v>
       </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>53.125</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -665,28 +680,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>1741.383203</v>
+        <v>1739.863848</v>
       </c>
       <c r="C7" s="2">
-        <v>246.587725</v>
+        <v>245.384135</v>
       </c>
       <c r="D7" s="2">
-        <v>0.079778</v>
+        <v>0.127655</v>
       </c>
       <c r="E7" s="2">
-        <v>3.868076</v>
+        <v>5.192471</v>
       </c>
       <c r="F7" s="2">
-        <v>52.34375</v>
+        <v>51.5625</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -694,28 +709,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>1729.469216</v>
+        <v>1710.219734</v>
       </c>
       <c r="C8" s="2">
-        <v>261.227781</v>
+        <v>235.03569</v>
       </c>
       <c r="D8" s="2">
-        <v>0.334588</v>
+        <v>0.196664</v>
       </c>
       <c r="E8" s="2">
-        <v>4.782109</v>
+        <v>4.723951</v>
       </c>
       <c r="F8" s="2">
-        <v>49.21875</v>
+        <v>54.6875</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -723,28 +738,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>1757.89233</v>
+        <v>1743.685623</v>
       </c>
       <c r="C9" s="2">
-        <v>245.706346</v>
+        <v>247.698897</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.024852</v>
+        <v>0.033656</v>
       </c>
       <c r="E9" s="2">
-        <v>4.386302</v>
+        <v>3.988629</v>
       </c>
       <c r="F9" s="2">
-        <v>51.5625</v>
+        <v>48.4375</v>
       </c>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -752,28 +767,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>1744.902815</v>
+        <v>1731.631341</v>
       </c>
       <c r="C10" s="2">
-        <v>227.481954</v>
+        <v>259.350826</v>
       </c>
       <c r="D10" s="2">
-        <v>0.296993</v>
+        <v>-1.032067</v>
       </c>
       <c r="E10" s="2">
-        <v>3.917674</v>
+        <v>1.886314</v>
       </c>
       <c r="F10" s="2">
-        <v>51.5625</v>
+        <v>46.875</v>
       </c>
       <c r="G10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -781,28 +796,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>1752.741149</v>
+        <v>1758.241927</v>
       </c>
       <c r="C11" s="2">
-        <v>236.532555</v>
+        <v>260.150665</v>
       </c>
       <c r="D11" s="2">
-        <v>0.324316</v>
+        <v>0.108844</v>
       </c>
       <c r="E11" s="2">
-        <v>4.643901</v>
+        <v>5.427987</v>
       </c>
       <c r="F11" s="2">
-        <v>53.90625</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I11" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -810,28 +825,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>1722.217662</v>
+        <v>1767.347737</v>
       </c>
       <c r="C12" s="2">
-        <v>253.147209</v>
+        <v>245.40587</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.715754</v>
+        <v>0.228809</v>
       </c>
       <c r="E12" s="2">
-        <v>1.596722</v>
+        <v>5.249349</v>
       </c>
       <c r="F12" s="2">
-        <v>54.6875</v>
+        <v>47.65625</v>
       </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I12" s="2">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -839,28 +854,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>1794.144868</v>
+        <v>1765.813314</v>
       </c>
       <c r="C13" s="2">
-        <v>232.026691</v>
+        <v>221.362173</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.206985</v>
+        <v>0.699601</v>
       </c>
       <c r="E13" s="2">
-        <v>2.523969</v>
+        <v>5.317408</v>
       </c>
       <c r="F13" s="2">
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -868,28 +883,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>1745.685595</v>
+        <v>1770.419247</v>
       </c>
       <c r="C14" s="2">
-        <v>267.662661</v>
+        <v>254.417699</v>
       </c>
       <c r="D14" s="2">
-        <v>0.315709</v>
+        <v>0.302742</v>
       </c>
       <c r="E14" s="2">
-        <v>4.220947</v>
+        <v>6.509542</v>
       </c>
       <c r="F14" s="2">
-        <v>50</v>
+        <v>53.125</v>
       </c>
       <c r="G14" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -897,28 +912,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>1772.263861</v>
+        <v>1735.74434</v>
       </c>
       <c r="C15" s="2">
-        <v>254.856945</v>
+        <v>250.375261</v>
       </c>
       <c r="D15" s="2">
-        <v>0.169575</v>
+        <v>0.377586</v>
       </c>
       <c r="E15" s="2">
-        <v>3.478333</v>
+        <v>4.521987</v>
       </c>
       <c r="F15" s="2">
-        <v>47.65625</v>
+        <v>50.78125</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -926,28 +941,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1727.870403</v>
+        <v>1758.678989</v>
       </c>
       <c r="C16" s="2">
-        <v>256.860981</v>
+        <v>228.445064</v>
       </c>
       <c r="D16" s="2">
-        <v>0.521527</v>
+        <v>1.156441</v>
       </c>
       <c r="E16" s="2">
-        <v>5.076763</v>
+        <v>6.480671</v>
       </c>
       <c r="F16" s="2">
-        <v>49.21875</v>
+        <v>48.4375</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -955,28 +970,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1696.698131</v>
+        <v>1766.076295</v>
       </c>
       <c r="C17" s="2">
-        <v>253.71489</v>
+        <v>244.002013</v>
       </c>
       <c r="D17" s="2">
-        <v>0.113652</v>
+        <v>0.113683</v>
       </c>
       <c r="E17" s="2">
-        <v>2.749505</v>
+        <v>4.828859</v>
       </c>
       <c r="F17" s="2">
-        <v>48.4375</v>
+        <v>45.3125</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -984,28 +999,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>1738.171894</v>
+        <v>1750.953691</v>
       </c>
       <c r="C18" s="2">
-        <v>250.004131</v>
+        <v>262.042115</v>
       </c>
       <c r="D18" s="2">
-        <v>-1.650949</v>
+        <v>0.404317</v>
       </c>
       <c r="E18" s="2">
-        <v>0.672688</v>
+        <v>4.937471</v>
       </c>
       <c r="F18" s="2">
-        <v>48.4375</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
+        <v>128</v>
+      </c>
+      <c r="I18" s="2">
         <v>124</v>
-      </c>
-      <c r="I18" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1013,28 +1028,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1747.077781</v>
+        <v>1733.622086</v>
       </c>
       <c r="C19" s="2">
-        <v>247.131886</v>
+        <v>234.313611</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.546278</v>
+        <v>-0.118602</v>
       </c>
       <c r="E19" s="2">
-        <v>2.746638</v>
+        <v>3.151776</v>
       </c>
       <c r="F19" s="2">
-        <v>46.09375</v>
+        <v>53.90625</v>
       </c>
       <c r="G19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1042,28 +1057,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1770.287538</v>
+        <v>1723.036759</v>
       </c>
       <c r="C20" s="2">
-        <v>247.960486</v>
+        <v>257.334798</v>
       </c>
       <c r="D20" s="2">
-        <v>0.135606</v>
+        <v>-0.417147</v>
       </c>
       <c r="E20" s="2">
-        <v>4.430412</v>
+        <v>2.651358</v>
       </c>
       <c r="F20" s="2">
-        <v>53.125</v>
+        <v>52.34375</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1071,28 +1086,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1797.91262</v>
+        <v>1750.300046</v>
       </c>
       <c r="C21" s="2">
-        <v>219.138451</v>
+        <v>235.709831</v>
       </c>
       <c r="D21" s="2">
-        <v>-1.034322</v>
+        <v>0.201757</v>
       </c>
       <c r="E21" s="2">
-        <v>1.791313</v>
+        <v>3.636091</v>
       </c>
       <c r="F21" s="2">
-        <v>49.21875</v>
+        <v>53.90625</v>
       </c>
       <c r="G21" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1100,28 +1115,28 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1740.775355</v>
+        <v>1757.630162</v>
       </c>
       <c r="C22" s="2">
-        <v>248.524451</v>
+        <v>260.098303</v>
       </c>
       <c r="D22" s="2">
-        <v>0.08322300000000001</v>
+        <v>0.336915</v>
       </c>
       <c r="E22" s="2">
-        <v>4.635164</v>
+        <v>6.001559</v>
       </c>
       <c r="F22" s="2">
-        <v>49.21875</v>
+        <v>50.78125</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I22" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1129,28 +1144,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>1739.08281</v>
+        <v>1752.130661</v>
       </c>
       <c r="C23" s="2">
-        <v>258.080376</v>
+        <v>226.196493</v>
       </c>
       <c r="D23" s="2">
-        <v>0.005213</v>
+        <v>-0.2741</v>
       </c>
       <c r="E23" s="2">
-        <v>4.272405</v>
+        <v>6.469309</v>
       </c>
       <c r="F23" s="2">
-        <v>47.65625</v>
+        <v>53.125</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1158,28 +1173,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>1743.294503</v>
+        <v>1752.435887</v>
       </c>
       <c r="C24" s="2">
-        <v>242.917768</v>
+        <v>229.143415</v>
       </c>
       <c r="D24" s="2">
-        <v>0.572087</v>
+        <v>-0.435708</v>
       </c>
       <c r="E24" s="2">
-        <v>6.088367</v>
+        <v>2.263718</v>
       </c>
       <c r="F24" s="2">
-        <v>51.5625</v>
+        <v>47.65625</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I24" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1187,28 +1202,28 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>1754.704394</v>
+        <v>1758.722699</v>
       </c>
       <c r="C25" s="2">
-        <v>241.550846</v>
+        <v>223.052915</v>
       </c>
       <c r="D25" s="2">
-        <v>0.460086</v>
+        <v>-0.586809</v>
       </c>
       <c r="E25" s="2">
-        <v>4.040134</v>
+        <v>2.949183</v>
       </c>
       <c r="F25" s="2">
         <v>51.5625</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <v>132</v>
       </c>
       <c r="I25" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1216,28 +1231,173 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>1763.622823</v>
+        <v>1769.848555</v>
       </c>
       <c r="C26" s="2">
-        <v>237.730517</v>
+        <v>239.139958</v>
       </c>
       <c r="D26" s="2">
-        <v>-0.250895</v>
+        <v>0.390633</v>
       </c>
       <c r="E26" s="2">
-        <v>2.487608</v>
+        <v>7.291936</v>
       </c>
       <c r="F26" s="2">
-        <v>49.21875</v>
+        <v>54.6875</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2">
-        <v>127</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1729.815035</v>
+      </c>
+      <c r="C27" s="2">
+        <v>226.034774</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.630838</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.495669</v>
+      </c>
+      <c r="F27" s="2">
+        <v>46.09375</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>118</v>
+      </c>
+      <c r="I27" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1733.016046</v>
+      </c>
+      <c r="C28" s="2">
+        <v>255.267826</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.467489</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.148632</v>
+      </c>
+      <c r="F28" s="2">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>128</v>
+      </c>
+      <c r="I28" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1727.092959</v>
+      </c>
+      <c r="C29" s="2">
+        <v>223.918957</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.962764</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9.676088</v>
+      </c>
+      <c r="F29" s="2">
+        <v>53.90625</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>138</v>
+      </c>
+      <c r="I29" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1719.546622</v>
+      </c>
+      <c r="C30" s="2">
+        <v>268.050161</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.309255</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.619681</v>
+      </c>
+      <c r="F30" s="2">
+        <v>47.65625</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>122</v>
+      </c>
+      <c r="I30" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1745.72909</v>
+      </c>
+      <c r="C31" s="2">
+        <v>252.765375</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.596337</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.64161</v>
+      </c>
+      <c r="F31" s="2">
+        <v>47.65625</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>122</v>
+      </c>
+      <c r="I31" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
